--- a/data/大众店铺查询测试_1/data.xlsx
+++ b/data/大众店铺查询测试_1/data.xlsx
@@ -22,7 +22,7 @@
     <t>关键词</t>
   </si>
   <si>
-    <t>长沙</t>
+    <t>北京</t>
   </si>
   <si>
     <t>体适能</t>
